--- a/data/trans_bre/P44D-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P44D-Edad-trans_bre.xlsx
@@ -638,20 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-65.79936811069345</v>
+        <v>-65.7206300508779</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-14.42582375952119</v>
+        <v>-12.97798214591039</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.583614635589244</v>
+        <v>-5.806085631770264</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="G5" s="6" t="inlineStr"/>
+      <c r="G5" s="6" t="n">
+        <v>-0.6822899571608324</v>
+      </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5417543920630071</v>
+        <v>-0.5317238018097055</v>
       </c>
     </row>
     <row r="6">
@@ -662,20 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.256971128254671</v>
+        <v>-2.21966228088968</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>53.61857088707696</v>
+        <v>49.3274066214967</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.448324633823992</v>
+        <v>9.241695292109748</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.4029489177229927</v>
-      </c>
-      <c r="G6" s="6" t="inlineStr"/>
+        <v>0.4047073770671288</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>10.4146678430488</v>
+      </c>
       <c r="H6" s="6" t="n">
-        <v>3.21496882476845</v>
+        <v>2.851168706514605</v>
       </c>
     </row>
     <row r="7">
@@ -716,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.996052305663785</v>
+        <v>-0.1957513842346084</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-37.64420564929187</v>
+        <v>-38.01138280006796</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-11.19078191357306</v>
+        <v>-12.23717432882416</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.415364489614219</v>
+        <v>-0.5309892491338682</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6629833061359741</v>
+        <v>-0.687277128627356</v>
       </c>
     </row>
     <row r="9">
@@ -742,20 +746,20 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>44.78091170895455</v>
+        <v>43.86190272616341</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-5.671113231441546</v>
+        <v>-7.085177454725359</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-0.5834267681385072</v>
+        <v>-1.102027839369804</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="n">
-        <v>-0.00900743406395953</v>
+        <v>-0.1019050829298972</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.02198312007878619</v>
+        <v>-0.1060512307482146</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +780,7 @@
         <v>10.37086216744506</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-1.48869074919338</v>
+        <v>-1.488690749193383</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>-0.04517413005893196</v>
@@ -785,7 +789,7 @@
         <v>2.228975340262371</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>-0.1563629379852838</v>
+        <v>-0.156362937985284</v>
       </c>
     </row>
     <row r="11">
@@ -796,18 +800,20 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-20.14802428776247</v>
+        <v>-17.32212345576378</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.668182939059233</v>
+        <v>-3.880648842763335</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.755888124836379</v>
+        <v>-6.85598947141786</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
-      <c r="G11" s="6" t="inlineStr"/>
+      <c r="G11" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5607659801345194</v>
+        <v>-0.537767596693047</v>
       </c>
     </row>
     <row r="12">
@@ -818,18 +824,18 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.46539766105102</v>
+        <v>14.9562648308416</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>27.27212951297962</v>
+        <v>27.40910221118616</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.128469341594774</v>
+        <v>2.924282979821587</v>
       </c>
       <c r="F12" s="6" t="inlineStr"/>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>0.4817087585684708</v>
+        <v>0.4306936324430001</v>
       </c>
     </row>
     <row r="13">
@@ -870,18 +876,18 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-8.382660461348809</v>
+        <v>-9.142122948162367</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-9.145504878856107</v>
+        <v>-9.01338696423946</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-6.537238351160137</v>
+        <v>-6.750918535111544</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>-0.7563580205575715</v>
+        <v>-0.7798063902010763</v>
       </c>
     </row>
     <row r="15">
@@ -892,18 +898,18 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>34.16151748038457</v>
+        <v>31.74844528348383</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>14.02672209024252</v>
+        <v>15.44564526707218</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.463909552124609</v>
+        <v>2.396632264623948</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>1.064001127272178</v>
+        <v>0.9638155572936679</v>
       </c>
     </row>
     <row r="16">
@@ -924,7 +930,7 @@
         <v>-3.14147751221779</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-2.555809878932862</v>
+        <v>-2.55580987893286</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>0.378459936785751</v>
@@ -933,7 +939,7 @@
         <v>-0.2160289914528093</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>-0.2602369038381183</v>
+        <v>-0.2602369038381181</v>
       </c>
     </row>
     <row r="17">
@@ -944,22 +950,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.371601004566834</v>
+        <v>-7.090993664596581</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-11.63397358840619</v>
+        <v>-10.75251307220491</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.645107134798737</v>
+        <v>-5.379643043703211</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.3929330458650014</v>
+        <v>-0.4004687745123901</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.6309101549036558</v>
+        <v>-0.6300528886656961</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.4846473022822776</v>
+        <v>-0.453228074401216</v>
       </c>
     </row>
     <row r="18">
@@ -970,22 +976,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.14318527877999</v>
+        <v>15.22963519761536</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.619912687473734</v>
+        <v>6.283829238670717</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2968519971270174</v>
+        <v>0.3057017477394988</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1.963833638914511</v>
+        <v>1.931583658086969</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.557041946550409</v>
+        <v>0.5682830925228831</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04176807531060499</v>
+        <v>0.06349010160098363</v>
       </c>
     </row>
     <row r="19">
